--- a/results/gurobi_cplex_comparison/seed_50_k_45.xlsx
+++ b/results/gurobi_cplex_comparison/seed_50_k_45.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.025</v>
+        <v>1.237</v>
       </c>
       <c r="F2">
-        <v>0.054</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.044</v>
+        <v>1.774</v>
       </c>
       <c r="F3">
-        <v>0.074</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.018</v>
+        <v>2.393</v>
       </c>
       <c r="F4">
-        <v>0.042</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.018</v>
+        <v>3.165</v>
       </c>
       <c r="F5">
-        <v>0.058</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.082</v>
+        <v>4.004</v>
       </c>
       <c r="F6">
-        <v>0.073</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.159</v>
+        <v>5.049</v>
       </c>
       <c r="F7">
-        <v>0.11</v>
+        <v>1.088</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.025</v>
+        <v>5.958</v>
       </c>
       <c r="F8">
-        <v>0.065</v>
+        <v>1.291</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.089</v>
+        <v>7.103</v>
       </c>
       <c r="F9">
-        <v>0.187</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08699999999999999</v>
+        <v>8.374000000000001</v>
       </c>
       <c r="F10">
-        <v>0.108</v>
+        <v>1.729</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.058</v>
+        <v>9.657999999999999</v>
       </c>
       <c r="F11">
-        <v>0.076</v>
+        <v>1.957</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.299</v>
+        <v>11.326</v>
       </c>
       <c r="F12">
-        <v>113.469</v>
+        <v>140.881</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.094</v>
+        <v>12.635</v>
       </c>
       <c r="F13">
-        <v>91.39</v>
+        <v>177.934</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.158</v>
+        <v>14.404</v>
       </c>
       <c r="F14">
-        <v>132.328</v>
+        <v>117.55</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.067</v>
+        <v>15.936</v>
       </c>
       <c r="F15">
-        <v>41.588</v>
+        <v>84.92</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.287</v>
+        <v>17.992</v>
       </c>
       <c r="F16">
-        <v>104.956</v>
+        <v>83.34099999999999</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.803</v>
+        <v>20.551</v>
       </c>
       <c r="F17">
-        <v>56.706</v>
+        <v>83.273</v>
       </c>
     </row>
   </sheetData>
